--- a/data/unchecked/manual_collect/china/ningxia/ningxiaCaseStatistics_20200222.xlsx
+++ b/data/unchecked/manual_collect/china/ningxia/ningxiaCaseStatistics_20200222.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\核查\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\徐荣安\Desktop\数据收集\宁夏 山东数据收集\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD8A267-03C0-453D-A408-0E35EE446D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9452" uniqueCount="3301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9449" uniqueCount="3298">
   <si>
     <t>序号</t>
   </si>
@@ -10292,25 +10293,12 @@
   </si>
   <si>
     <t>已核查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭泽添</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>核查通过</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10767,47 +10755,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="X5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="12.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="12" customWidth="1"/>
-    <col min="9" max="16" width="12.5" style="12" customWidth="1"/>
-    <col min="17" max="18" width="26.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.84375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.4609375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.61328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="17.15234375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.4609375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.15234375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" style="12" customWidth="1"/>
+    <col min="9" max="16" width="12.4609375" style="12" customWidth="1"/>
+    <col min="17" max="18" width="26.61328125" style="12" customWidth="1"/>
     <col min="19" max="19" width="7" style="12" customWidth="1"/>
-    <col min="20" max="20" width="31.875" style="13" customWidth="1"/>
+    <col min="20" max="20" width="31.84375" style="13" customWidth="1"/>
     <col min="21" max="21" width="18" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.625" style="12" customWidth="1"/>
-    <col min="23" max="23" width="31.875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10.61328125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="31.84375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.15234375" style="12" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="21.875" style="12" customWidth="1"/>
-    <col min="28" max="28" width="20.875" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.5" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.875" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.875" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.5" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="21.84375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="20.84375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.4609375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.84375" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.84375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.4609375" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.875" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.875" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.84375" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.84375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.84375" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.125" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.875" style="12"/>
+    <col min="40" max="40" width="5.15234375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.84375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="16.5" customHeight="1">
@@ -10996,18 +10984,10 @@
       <c r="AC2" s="12" t="s">
         <v>3297</v>
       </c>
-      <c r="AD2" s="13">
-        <v>43884.428472222222</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>3298</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>3299</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>3300</v>
-      </c>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
     </row>
     <row r="3" spans="1:40" ht="16.5" customHeight="1">
       <c r="A3" s="14">
@@ -12272,7 +12252,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O22" s="16"/>
       <c r="Q22" s="16"/>
@@ -12334,7 +12314,7 @@
         <v>71</v>
       </c>
       <c r="N23" s="16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O23" s="16">
         <v>48</v>
@@ -12372,44 +12352,44 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE24:AE1048576 AK2:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE24:AE1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1048576 AM2:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG6:AG1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:R1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="V3:V23" r:id="rId2" display="http://wsjkw.nx.gov.cn/info/1140/14731.htm"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="V3:V23" r:id="rId2" display="http://wsjkw.nx.gov.cn/info/1140/14731.htm" xr:uid="{8D64EE53-B71B-4D01-BE8B-565210AC1EAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
           <xm:sqref>F24:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'C:\Users\Administrator\Desktop\数据\第三版数据\ningxia\[ningxiaCaseStatistics_20200212.xlsx]中国各省市区县数据'!#REF!</xm:f>
           </x14:formula1>
@@ -12422,7 +12402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="AF1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -12430,10 +12410,10 @@
       <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
